--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220520_110301.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220520_110301.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="258">
   <si>
     <t>사이트</t>
   </si>
@@ -731,9 +731,6 @@
   </si>
   <si>
     <t>해외</t>
-  </si>
-  <si>
-    <t>개인</t>
   </si>
   <si>
     <t>NEXTAR</t>
@@ -2110,7 +2107,7 @@
         <v>180</v>
       </c>
       <c r="G37" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="H37" t="s">
         <v>234</v>
@@ -2136,7 +2133,7 @@
         <v>181</v>
       </c>
       <c r="G38" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H38" t="s">
         <v>234</v>
@@ -2162,7 +2159,7 @@
         <v>182</v>
       </c>
       <c r="G39" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H39" t="s">
         <v>234</v>
@@ -2214,7 +2211,7 @@
         <v>183</v>
       </c>
       <c r="G41" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H41" t="s">
         <v>234</v>
@@ -2266,7 +2263,7 @@
         <v>184</v>
       </c>
       <c r="G43" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H43" t="s">
         <v>234</v>
@@ -2292,7 +2289,7 @@
         <v>52</v>
       </c>
       <c r="G44" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H44" t="s">
         <v>234</v>
@@ -2370,7 +2367,7 @@
         <v>185</v>
       </c>
       <c r="G47" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H47" t="s">
         <v>234</v>
@@ -2448,7 +2445,7 @@
         <v>58</v>
       </c>
       <c r="G50" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H50" t="s">
         <v>234</v>
@@ -2552,10 +2549,10 @@
         <v>188</v>
       </c>
       <c r="G54" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H54" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2578,7 +2575,7 @@
         <v>189</v>
       </c>
       <c r="G55" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H55" t="s">
         <v>234</v>
@@ -2604,7 +2601,7 @@
         <v>190</v>
       </c>
       <c r="G56" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H56" t="s">
         <v>234</v>
@@ -2630,7 +2627,7 @@
         <v>65</v>
       </c>
       <c r="G57" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="H57" t="s">
         <v>234</v>
@@ -2708,7 +2705,7 @@
         <v>192</v>
       </c>
       <c r="G60" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H60" t="s">
         <v>234</v>
@@ -2760,7 +2757,7 @@
         <v>70</v>
       </c>
       <c r="G62" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H62" t="s">
         <v>234</v>
@@ -2786,7 +2783,7 @@
         <v>194</v>
       </c>
       <c r="G63" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="H63" t="s">
         <v>234</v>
@@ -2812,7 +2809,7 @@
         <v>72</v>
       </c>
       <c r="G64" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H64" t="s">
         <v>234</v>
@@ -2838,10 +2835,10 @@
         <v>73</v>
       </c>
       <c r="G65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2864,7 +2861,7 @@
         <v>189</v>
       </c>
       <c r="G66" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H66" t="s">
         <v>234</v>
@@ -2916,7 +2913,7 @@
         <v>196</v>
       </c>
       <c r="G68" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H68" t="s">
         <v>234</v>
@@ -2994,7 +2991,7 @@
         <v>199</v>
       </c>
       <c r="G71" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H71" t="s">
         <v>234</v>
@@ -3046,7 +3043,7 @@
         <v>201</v>
       </c>
       <c r="G73" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H73" t="s">
         <v>234</v>
@@ -3098,7 +3095,7 @@
         <v>83</v>
       </c>
       <c r="G75" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H75" t="s">
         <v>234</v>
@@ -3124,7 +3121,7 @@
         <v>203</v>
       </c>
       <c r="G76" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H76" t="s">
         <v>234</v>
@@ -3150,7 +3147,7 @@
         <v>204</v>
       </c>
       <c r="G77" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H77" t="s">
         <v>234</v>
@@ -3228,7 +3225,7 @@
         <v>206</v>
       </c>
       <c r="G80" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H80" t="s">
         <v>234</v>
@@ -3254,7 +3251,7 @@
         <v>207</v>
       </c>
       <c r="G81" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H81" t="s">
         <v>234</v>
@@ -3280,7 +3277,7 @@
         <v>90</v>
       </c>
       <c r="G82" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H82" t="s">
         <v>234</v>
@@ -3332,7 +3329,7 @@
         <v>209</v>
       </c>
       <c r="G84" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H84" t="s">
         <v>234</v>
@@ -3384,10 +3381,10 @@
         <v>210</v>
       </c>
       <c r="G86" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H86" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3410,7 +3407,7 @@
         <v>211</v>
       </c>
       <c r="G87" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H87" t="s">
         <v>234</v>
@@ -3462,7 +3459,7 @@
         <v>212</v>
       </c>
       <c r="G89" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H89" t="s">
         <v>234</v>
@@ -3488,7 +3485,7 @@
         <v>213</v>
       </c>
       <c r="G90" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H90" t="s">
         <v>234</v>
@@ -3514,7 +3511,7 @@
         <v>214</v>
       </c>
       <c r="G91" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H91" t="s">
         <v>234</v>
@@ -3670,7 +3667,7 @@
         <v>220</v>
       </c>
       <c r="G97" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H97" t="s">
         <v>234</v>
@@ -3696,7 +3693,7 @@
         <v>221</v>
       </c>
       <c r="G98" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H98" t="s">
         <v>234</v>
@@ -3722,7 +3719,7 @@
         <v>107</v>
       </c>
       <c r="G99" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H99" t="s">
         <v>234</v>
